--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_BISTECH.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2021/Thang6/02.XuLyBH/XLBH2106_BISTECH.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="95">
   <si>
     <t>STT</t>
   </si>
@@ -713,9 +713,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -735,21 +750,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1058,8 +1058,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="N5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6:S30"/>
+    <sheetView showZeros="0" topLeftCell="A16" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M35" sqref="M35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1091,43 +1091,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="19"/>
       <c r="I2" s="48"/>
@@ -1172,58 +1172,58 @@
       <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="25"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1248,23 +1248,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="64" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="25"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1274,7 +1274,9 @@
       <c r="B6" s="35">
         <v>44375</v>
       </c>
-      <c r="C6" s="35"/>
+      <c r="C6" s="35">
+        <v>44378</v>
+      </c>
       <c r="D6" s="36" t="s">
         <v>44</v>
       </c>
@@ -1289,7 +1291,9 @@
       <c r="I6" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K6" s="56" t="s">
         <v>64</v>
       </c>
@@ -1312,7 +1316,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="65"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1327,7 +1331,9 @@
       <c r="B7" s="35">
         <v>44375</v>
       </c>
-      <c r="C7" s="35"/>
+      <c r="C7" s="35">
+        <v>44378</v>
+      </c>
       <c r="D7" s="36" t="s">
         <v>44</v>
       </c>
@@ -1342,7 +1348,9 @@
       <c r="I7" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="38"/>
+      <c r="J7" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="K7" s="38" t="s">
         <v>64</v>
       </c>
@@ -1365,7 +1373,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="65"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1378,7 +1386,9 @@
       <c r="B8" s="35">
         <v>44375</v>
       </c>
-      <c r="C8" s="35"/>
+      <c r="C8" s="35">
+        <v>44378</v>
+      </c>
       <c r="D8" s="36" t="s">
         <v>44</v>
       </c>
@@ -1420,7 +1430,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="65"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1433,7 +1443,9 @@
       <c r="B9" s="35">
         <v>44375</v>
       </c>
-      <c r="C9" s="35"/>
+      <c r="C9" s="35">
+        <v>44378</v>
+      </c>
       <c r="D9" s="36" t="s">
         <v>44</v>
       </c>
@@ -1475,7 +1487,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="65"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1488,7 +1500,9 @@
       <c r="B10" s="35">
         <v>44375</v>
       </c>
-      <c r="C10" s="35"/>
+      <c r="C10" s="35">
+        <v>44378</v>
+      </c>
       <c r="D10" s="36" t="s">
         <v>44</v>
       </c>
@@ -1530,7 +1544,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="65"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1543,7 +1557,9 @@
       <c r="B11" s="35">
         <v>44375</v>
       </c>
-      <c r="C11" s="35"/>
+      <c r="C11" s="35">
+        <v>44378</v>
+      </c>
       <c r="D11" s="36" t="s">
         <v>44</v>
       </c>
@@ -1558,7 +1574,9 @@
       <c r="I11" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="38"/>
+      <c r="J11" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K11" s="1" t="s">
         <v>64</v>
       </c>
@@ -1581,7 +1599,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="65"/>
-      <c r="U11" s="77"/>
+      <c r="U11" s="69"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1594,7 +1612,9 @@
       <c r="B12" s="35">
         <v>44375</v>
       </c>
-      <c r="C12" s="35"/>
+      <c r="C12" s="35">
+        <v>44378</v>
+      </c>
       <c r="D12" s="36" t="s">
         <v>44</v>
       </c>
@@ -1636,7 +1656,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="65"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1651,7 +1671,9 @@
       <c r="B13" s="35">
         <v>44375</v>
       </c>
-      <c r="C13" s="35"/>
+      <c r="C13" s="35">
+        <v>44378</v>
+      </c>
       <c r="D13" s="36" t="s">
         <v>44</v>
       </c>
@@ -1666,7 +1688,9 @@
       <c r="I13" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J13" s="38"/>
+      <c r="J13" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K13" s="1" t="s">
         <v>64</v>
       </c>
@@ -1689,7 +1713,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="65"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1702,7 +1726,9 @@
       <c r="B14" s="35">
         <v>44375</v>
       </c>
-      <c r="C14" s="35"/>
+      <c r="C14" s="35">
+        <v>44378</v>
+      </c>
       <c r="D14" s="36" t="s">
         <v>44</v>
       </c>
@@ -1742,7 +1768,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="65"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1755,7 +1781,9 @@
       <c r="B15" s="35">
         <v>44375</v>
       </c>
-      <c r="C15" s="59"/>
+      <c r="C15" s="35">
+        <v>44378</v>
+      </c>
       <c r="D15" s="36" t="s">
         <v>44</v>
       </c>
@@ -1795,7 +1823,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1808,7 +1836,9 @@
       <c r="B16" s="35">
         <v>44375</v>
       </c>
-      <c r="C16" s="59"/>
+      <c r="C16" s="35">
+        <v>44378</v>
+      </c>
       <c r="D16" s="36" t="s">
         <v>44</v>
       </c>
@@ -1823,7 +1853,9 @@
       <c r="I16" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="1"/>
+      <c r="J16" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>64</v>
       </c>
@@ -1846,7 +1878,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -1859,7 +1891,9 @@
       <c r="B17" s="35">
         <v>44375</v>
       </c>
-      <c r="C17" s="59"/>
+      <c r="C17" s="35">
+        <v>44378</v>
+      </c>
       <c r="D17" s="36" t="s">
         <v>44</v>
       </c>
@@ -1874,7 +1908,9 @@
       <c r="I17" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="38"/>
+      <c r="J17" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>82</v>
       </c>
@@ -1910,7 +1946,9 @@
       <c r="B18" s="35">
         <v>44375</v>
       </c>
-      <c r="C18" s="60"/>
+      <c r="C18" s="35">
+        <v>44378</v>
+      </c>
       <c r="D18" s="36" t="s">
         <v>44</v>
       </c>
@@ -1963,7 +2001,9 @@
       <c r="B19" s="35">
         <v>44375</v>
       </c>
-      <c r="C19" s="60"/>
+      <c r="C19" s="35">
+        <v>44378</v>
+      </c>
       <c r="D19" s="36" t="s">
         <v>44</v>
       </c>
@@ -1978,7 +2018,9 @@
       <c r="I19" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="1"/>
+      <c r="J19" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>64</v>
       </c>
@@ -2016,7 +2058,9 @@
       <c r="B20" s="35">
         <v>44375</v>
       </c>
-      <c r="C20" s="60"/>
+      <c r="C20" s="35">
+        <v>44378</v>
+      </c>
       <c r="D20" s="36" t="s">
         <v>44</v>
       </c>
@@ -2044,7 +2088,9 @@
         <v>85</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="38"/>
+      <c r="O20" s="38" t="s">
+        <v>81</v>
+      </c>
       <c r="P20" s="1" t="s">
         <v>74</v>
       </c>
@@ -2072,7 +2118,9 @@
       <c r="B21" s="35">
         <v>44375</v>
       </c>
-      <c r="C21" s="60"/>
+      <c r="C21" s="35">
+        <v>44378</v>
+      </c>
       <c r="D21" s="36" t="s">
         <v>44</v>
       </c>
@@ -2128,7 +2176,9 @@
       <c r="B22" s="35">
         <v>44375</v>
       </c>
-      <c r="C22" s="60"/>
+      <c r="C22" s="35">
+        <v>44378</v>
+      </c>
       <c r="D22" s="36" t="s">
         <v>44</v>
       </c>
@@ -2143,7 +2193,9 @@
       <c r="I22" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="9"/>
+      <c r="J22" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K22" s="9" t="s">
         <v>64</v>
       </c>
@@ -2182,7 +2234,9 @@
       <c r="B23" s="35">
         <v>44375</v>
       </c>
-      <c r="C23" s="60"/>
+      <c r="C23" s="35">
+        <v>44378</v>
+      </c>
       <c r="D23" s="36" t="s">
         <v>44</v>
       </c>
@@ -2197,7 +2251,9 @@
       <c r="I23" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="J23" s="1"/>
+      <c r="J23" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K23" s="9" t="s">
         <v>64</v>
       </c>
@@ -2231,7 +2287,9 @@
       <c r="B24" s="35">
         <v>44375</v>
       </c>
-      <c r="C24" s="60"/>
+      <c r="C24" s="35">
+        <v>44378</v>
+      </c>
       <c r="D24" s="36" t="s">
         <v>44</v>
       </c>
@@ -2246,7 +2304,9 @@
       <c r="I24" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="1"/>
+      <c r="J24" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K24" s="9" t="s">
         <v>64</v>
       </c>
@@ -2280,7 +2340,9 @@
       <c r="B25" s="35">
         <v>44375</v>
       </c>
-      <c r="C25" s="60"/>
+      <c r="C25" s="35">
+        <v>44378</v>
+      </c>
       <c r="D25" s="36" t="s">
         <v>44</v>
       </c>
@@ -2295,7 +2357,9 @@
       <c r="I25" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="1"/>
+      <c r="J25" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K25" s="9" t="s">
         <v>64</v>
       </c>
@@ -2333,7 +2397,9 @@
       <c r="B26" s="35">
         <v>44375</v>
       </c>
-      <c r="C26" s="60"/>
+      <c r="C26" s="35">
+        <v>44378</v>
+      </c>
       <c r="D26" s="36" t="s">
         <v>44</v>
       </c>
@@ -2389,7 +2455,9 @@
       <c r="B27" s="35">
         <v>44375</v>
       </c>
-      <c r="C27" s="60"/>
+      <c r="C27" s="35">
+        <v>44378</v>
+      </c>
       <c r="D27" s="36" t="s">
         <v>44</v>
       </c>
@@ -2404,7 +2472,9 @@
       <c r="I27" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="1"/>
+      <c r="J27" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K27" s="9" t="s">
         <v>64</v>
       </c>
@@ -2443,7 +2513,9 @@
       <c r="B28" s="35">
         <v>44375</v>
       </c>
-      <c r="C28" s="60"/>
+      <c r="C28" s="35">
+        <v>44378</v>
+      </c>
       <c r="D28" s="36" t="s">
         <v>44</v>
       </c>
@@ -2501,7 +2573,9 @@
       <c r="B29" s="35">
         <v>44375</v>
       </c>
-      <c r="C29" s="60"/>
+      <c r="C29" s="35">
+        <v>44378</v>
+      </c>
       <c r="D29" s="36" t="s">
         <v>44</v>
       </c>
@@ -2516,12 +2590,16 @@
       <c r="I29" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="1"/>
+      <c r="J29" s="38" t="s">
+        <v>77</v>
+      </c>
       <c r="K29" s="1" t="s">
         <v>64</v>
       </c>
       <c r="L29" s="9"/>
-      <c r="M29" s="9"/>
+      <c r="M29" s="9" t="s">
+        <v>87</v>
+      </c>
       <c r="N29" s="1"/>
       <c r="O29" s="38" t="s">
         <v>81</v>
@@ -2553,7 +2631,9 @@
       <c r="B30" s="35">
         <v>44375</v>
       </c>
-      <c r="C30" s="60"/>
+      <c r="C30" s="35">
+        <v>44378</v>
+      </c>
       <c r="D30" s="36" t="s">
         <v>44</v>
       </c>
@@ -3401,13 +3481,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3419,6 +3492,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3430,7 +3510,7 @@
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" topLeftCell="I1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P38" sqref="P38"/>
+      <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3462,43 +3542,43 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="74" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="L1" s="74"/>
+      <c r="M1" s="74"/>
+      <c r="N1" s="74"/>
+      <c r="O1" s="74"/>
+      <c r="P1" s="74"/>
+      <c r="Q1" s="74"/>
+      <c r="R1" s="74"/>
+      <c r="S1" s="74"/>
+      <c r="T1" s="74"/>
+      <c r="U1" s="74"/>
+      <c r="V1" s="74"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="70" t="s">
+      <c r="A2" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="72"/>
+      <c r="F2" s="77"/>
       <c r="G2" s="4"/>
       <c r="H2" s="19"/>
       <c r="I2" s="19"/>
@@ -3543,58 +3623,58 @@
       <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68" t="s">
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="68" t="s">
+      <c r="K4" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="68"/>
-      <c r="M4" s="74" t="s">
+      <c r="L4" s="72"/>
+      <c r="M4" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="74" t="s">
+      <c r="N4" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="79" t="s">
+      <c r="P4" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="68" t="s">
+      <c r="Q4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="68" t="s">
+      <c r="R4" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="80" t="s">
+      <c r="S4" s="73" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="25"/>
-      <c r="U4" s="68" t="s">
+      <c r="U4" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="68" t="s">
+      <c r="V4" s="72" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="73"/>
+      <c r="A5" s="78"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -3619,23 +3699,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="68"/>
+      <c r="J5" s="72"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="75"/>
-      <c r="N5" s="75"/>
-      <c r="O5" s="68"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="68"/>
-      <c r="R5" s="68"/>
-      <c r="S5" s="80"/>
+      <c r="M5" s="80"/>
+      <c r="N5" s="80"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="72"/>
+      <c r="R5" s="72"/>
+      <c r="S5" s="73"/>
       <c r="T5" s="25"/>
-      <c r="U5" s="68"/>
-      <c r="V5" s="68"/>
+      <c r="U5" s="72"/>
+      <c r="V5" s="72"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3763,7 @@
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="67"/>
-      <c r="U6" s="76" t="s">
+      <c r="U6" s="68" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3736,7 +3816,7 @@
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="67"/>
-      <c r="U7" s="77"/>
+      <c r="U7" s="69"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3791,7 +3871,7 @@
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="67"/>
-      <c r="U8" s="77"/>
+      <c r="U8" s="69"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3846,7 +3926,7 @@
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="67"/>
-      <c r="U9" s="77"/>
+      <c r="U9" s="69"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3901,7 +3981,7 @@
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="67"/>
-      <c r="U10" s="77"/>
+      <c r="U10" s="69"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3952,7 +4032,7 @@
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="67"/>
-      <c r="U11" s="78"/>
+      <c r="U11" s="70"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -4007,7 +4087,7 @@
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="67"/>
-      <c r="U12" s="76" t="s">
+      <c r="U12" s="68" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -4060,7 +4140,7 @@
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="67"/>
-      <c r="U13" s="77"/>
+      <c r="U13" s="69"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -4113,7 +4193,7 @@
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="67"/>
-      <c r="U14" s="77"/>
+      <c r="U14" s="69"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -4166,7 +4246,7 @@
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="12"/>
-      <c r="U15" s="77"/>
+      <c r="U15" s="69"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -4217,7 +4297,7 @@
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="12"/>
-      <c r="U16" s="78"/>
+      <c r="U16" s="70"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5772,6 +5852,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5783,13 +5870,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
